--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1155.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1155.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.720301635611009</v>
+        <v>1.162357926368713</v>
       </c>
       <c r="B1">
-        <v>1.835892038029818</v>
+        <v>2.417994737625122</v>
       </c>
       <c r="C1">
-        <v>1.968058149075887</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.777772862731384</v>
+        <v>2.379735231399536</v>
       </c>
       <c r="E1">
-        <v>2.846701074535156</v>
+        <v>1.233781933784485</v>
       </c>
     </row>
   </sheetData>
